--- a/Geant_simulation/data/energy_spectrum/calib GAr NIR.xlsx
+++ b/Geant_simulation/data/energy_spectrum/calib GAr NIR.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="NIR" sheetId="1" r:id="rId1"/>
+    <sheet name="VUV" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t xml:space="preserve">x pix </t>
   </si>
@@ -59,6 +60,30 @@
   </si>
   <si>
     <t>eff</t>
+  </si>
+  <si>
+    <t>x_real</t>
+  </si>
+  <si>
+    <t>x_pix</t>
+  </si>
+  <si>
+    <t>y_pix</t>
+  </si>
+  <si>
+    <t>y_norm to peak</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>E, eV</t>
+  </si>
+  <si>
+    <t>amp</t>
   </si>
 </sst>
 </file>
@@ -241,7 +266,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$7</c:f>
+              <c:f>NIR!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -268,7 +293,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$7</c:f>
+              <c:f>NIR!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -303,11 +328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="184835368"/>
-        <c:axId val="185404840"/>
+        <c:axId val="183664232"/>
+        <c:axId val="183254464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184835368"/>
+        <c:axId val="183664232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,12 +389,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185404840"/>
+        <c:crossAx val="183254464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185404840"/>
+        <c:axId val="183254464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,7 +451,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184835368"/>
+        <c:crossAx val="183664232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -531,7 +556,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$N$1</c:f>
+              <c:f>NIR!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -614,7 +639,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$M$2:$M$7</c:f>
+              <c:f>NIR!$M$2:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -641,7 +666,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$N$2:$N$7</c:f>
+              <c:f>NIR!$N$2:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -676,11 +701,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="185205608"/>
-        <c:axId val="185606520"/>
+        <c:axId val="183613328"/>
+        <c:axId val="183425312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="185205608"/>
+        <c:axId val="183613328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,12 +762,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185606520"/>
+        <c:crossAx val="183425312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185606520"/>
+        <c:axId val="183425312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +824,2350 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185205608"/>
+        <c:crossAx val="183613328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>NIR!$D$23:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>696.47600000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>727.35500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>750.02150000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>763.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>771.7025000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>794.36900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800.6105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>810.7940000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>825.57650000000012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>842.00150000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>911.64350000000013</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>921.827</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>965.18900000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>NIR!$G$23:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.15391970517530382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.29897066850416E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2048133538244756E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15165509846200301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21506408643442512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2608246265334489E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4801392055682237E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3406897566225226E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17022487351106949</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.521858293686587E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5147122013912803E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7137459691936068E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5778695663955598E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="157605848"/>
+        <c:axId val="388792400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="157605848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388792400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="388792400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157605848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29556933508311461"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7343175853018374E-2"/>
+                  <c:y val="-0.38981007582385535"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>VUV!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>VUV!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="434339472"/>
+        <c:axId val="434341040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="434339472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434341040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="434341040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434339472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>VUV!$J$2:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>631</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>VUV!$K$2:$K$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="437071416"/>
+        <c:axId val="437071024"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="437071416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437071024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="437071024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437071416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>VUV!$N$2:$N$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>139.46100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>139.0728</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138.55520000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137.77879999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137.00240000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136.61420000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>136.09660000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>135.57900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>134.93200000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>134.4144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>133.5086</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132.86160000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132.34399999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131.82640000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>131.17939999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>130.7912</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>130.27359999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>129.8854</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129.36779999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128.9796</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>128.33260000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>127.68560000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>127.0386</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>126.6504</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>126.26220000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>126.0034</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>125.74460000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>125.227</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>124.96820000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>124.7094</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>124.3212</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>123.93300000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>123.286</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>122.8978</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>122.50960000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>121.8626</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>121.4744</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>120.9568</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>120.18040000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>119.27460000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>116.816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>VUV!$P$2:$P$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.6339869281045753E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9411764705882353E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9019607843137254E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8627450980392163E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8039215686274508E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14052287581699346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16993464052287582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21568627450980393</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2581699346405229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33986928104575165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40522875816993464</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54575163398692805</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62745098039215685</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.79084967320261434</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85620915032679734</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.91503267973856206</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95751633986928109</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99346405228758172</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99673202614379086</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.96078431372549022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90849673202614378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.85947712418300659</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.79738562091503273</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72875816993464049</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.67647058823529416</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.63071895424836599</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.56209150326797386</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.48692810457516339</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.41503267973856212</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33660130718954251</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.27450980392156865</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.18627450980392157</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.11764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.1895424836601302E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.5947712418300651E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.8039215686274508E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="382910416"/>
+        <c:axId val="388795536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="382910416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388795536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="388795536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="382910416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>VUV!$O$2:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>8.890241062193569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9150567815890476</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9483607167004724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9987857985014923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0497824036263399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0754980724886387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1100138341044321</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1447931373927922</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1886424923263359</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.224025913701043</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2866070708147443</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3318303315222551</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.3683273044080391</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4051108789633737</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.4514985491211085</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4795514436336497</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5172153742168604</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.545660318823959</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5838524638633231</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.6126977349486076</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.6611609892932684</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.7101153832113987</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.7595684207365121</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.7894827712709738</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.8195810684003391</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.8397496319510225</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.8600012149593486</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.9007554982118666</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.9212592385469041</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.9418480786097714</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.9728920632569285</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.004130528386929</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.056631805513824</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.088397910903021</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.120365332794959</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.174096964733868</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.206610683193968</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.250286951825588</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.316506757962008</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.394852791579911</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.613630913355854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>VUV!$P$2:$P$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.6339869281045753E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9411764705882353E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9019607843137254E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8627450980392163E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8039215686274508E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14052287581699346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16993464052287582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21568627450980393</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2581699346405229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33986928104575165</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40522875816993464</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54575163398692805</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62745098039215685</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.79084967320261434</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85620915032679734</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.91503267973856206</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95751633986928109</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99346405228758172</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99673202614379086</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.96078431372549022</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90849673202614378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.85947712418300659</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.79738562091503273</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.72875816993464049</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.67647058823529416</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.63071895424836599</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.56209150326797386</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.48692810457516339</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.41503267973856212</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33660130718954251</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.27450980392156865</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.18627450980392157</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.11764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.1895424836601302E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.5947712418300651E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.8039215686274508E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="386601272"/>
+        <c:axId val="388794752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="386601272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388794752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="388794752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386601272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -928,6 +3296,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1445,6 +4013,2586 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2017,6 +7165,161 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2314,8 +7617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,7 +7862,7 @@
         <v>3.29897066850416E-2</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:L35" si="3">2*$K$23 * $J$23 / D24</f>
+        <f>2*$K$23 * $J$23 / D24</f>
         <v>1.7045897928447282</v>
       </c>
       <c r="M24">
@@ -2592,7 +7895,7 @@
         <v>4.2048133538244756E-2</v>
       </c>
       <c r="L25">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L24:L35" si="3">2*$K$23 * $J$23 / D25</f>
         <v>1.6530751568782727</v>
       </c>
       <c r="M25">
@@ -2948,6 +8251,1263 @@
         <v>1.27</v>
       </c>
       <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG44"/>
+  <sheetViews>
+    <sheetView topLeftCell="L9" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <v>65</v>
+      </c>
+      <c r="J2">
+        <v>535</v>
+      </c>
+      <c r="K2">
+        <v>117</v>
+      </c>
+      <c r="L2">
+        <f>MAX(K2:K42)</f>
+        <v>418</v>
+      </c>
+      <c r="M2">
+        <f>MIN(K2:K42)</f>
+        <v>112</v>
+      </c>
+      <c r="N2">
+        <f>J2*$E$15 + $E$16</f>
+        <v>139.46100000000001</v>
+      </c>
+      <c r="O2">
+        <f>2 * $AD$3 * $AC$3 /  N2</f>
+        <v>8.890241062193569</v>
+      </c>
+      <c r="P2">
+        <f>(K2 - $M$2)/($L$2 - $M$2)</f>
+        <v>1.6339869281045753E-2</v>
+      </c>
+      <c r="R2">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>190</v>
+      </c>
+      <c r="B3">
+        <v>146</v>
+      </c>
+      <c r="J3">
+        <v>538</v>
+      </c>
+      <c r="K3">
+        <v>121</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N42" si="0">J3*$E$15 + $E$16</f>
+        <v>139.0728</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O42" si="1">2 * $AD$3 * $AC$3 /  N3</f>
+        <v>8.9150567815890476</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P42" si="2">(K3 - $M$2)/($L$2 - $M$2)</f>
+        <v>2.9411764705882353E-2</v>
+      </c>
+      <c r="R3">
+        <v>8.8902410621935708</v>
+      </c>
+      <c r="S3">
+        <v>1.6339869281045753E-2</v>
+      </c>
+      <c r="AC3">
+        <v>197.3269718</v>
+      </c>
+      <c r="AD3">
+        <v>3.1415926000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>180</v>
+      </c>
+      <c r="B4">
+        <v>223</v>
+      </c>
+      <c r="J4">
+        <v>542</v>
+      </c>
+      <c r="K4">
+        <v>127</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>138.55520000000001</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>8.9483607167004724</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>4.9019607843137254E-2</v>
+      </c>
+      <c r="R4">
+        <v>8.9150567815890476</v>
+      </c>
+      <c r="S4">
+        <v>2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>170</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="J5">
+        <v>548</v>
+      </c>
+      <c r="K5">
+        <v>133</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>137.77879999999999</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>8.9987857985014923</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>6.8627450980392163E-2</v>
+      </c>
+      <c r="R5">
+        <v>8.9483607167004724</v>
+      </c>
+      <c r="S5">
+        <v>4.9019607843137254E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>160</v>
+      </c>
+      <c r="B6">
+        <v>375</v>
+      </c>
+      <c r="J6">
+        <v>554</v>
+      </c>
+      <c r="K6">
+        <v>142</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>137.00240000000002</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>9.0497824036263399</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>9.8039215686274508E-2</v>
+      </c>
+      <c r="R6">
+        <v>8.9987857985014923</v>
+      </c>
+      <c r="S6">
+        <v>6.8627450980392163E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>150</v>
+      </c>
+      <c r="B7">
+        <v>454</v>
+      </c>
+      <c r="J7">
+        <v>557</v>
+      </c>
+      <c r="K7">
+        <v>148</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>136.61420000000001</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>9.0754980724886387</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="R7">
+        <v>9.0497824036263399</v>
+      </c>
+      <c r="S7">
+        <v>9.8039215686274508E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>140</v>
+      </c>
+      <c r="B8">
+        <v>532</v>
+      </c>
+      <c r="J8">
+        <v>561</v>
+      </c>
+      <c r="K8">
+        <v>155</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>136.09660000000002</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>9.1100138341044321</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>0.14052287581699346</v>
+      </c>
+      <c r="R8">
+        <v>9.0754980724886387</v>
+      </c>
+      <c r="S8">
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>130</v>
+      </c>
+      <c r="B9">
+        <v>608</v>
+      </c>
+      <c r="J9">
+        <v>565</v>
+      </c>
+      <c r="K9">
+        <v>164</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>135.57900000000001</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>9.1447931373927922</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>0.16993464052287582</v>
+      </c>
+      <c r="R9">
+        <v>9.1100138341044321</v>
+      </c>
+      <c r="S9">
+        <v>0.14052287581699346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>120</v>
+      </c>
+      <c r="B10">
+        <v>683</v>
+      </c>
+      <c r="J10">
+        <v>570</v>
+      </c>
+      <c r="K10">
+        <v>178</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>134.93200000000002</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>9.1886424923263359</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>0.21568627450980393</v>
+      </c>
+      <c r="R10">
+        <v>9.1447931373927922</v>
+      </c>
+      <c r="S10">
+        <v>0.16993464052287582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11">
+        <v>762</v>
+      </c>
+      <c r="J11">
+        <v>574</v>
+      </c>
+      <c r="K11">
+        <v>191</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>134.4144</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>9.224025913701043</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>0.2581699346405229</v>
+      </c>
+      <c r="R11">
+        <v>9.1886424923263359</v>
+      </c>
+      <c r="S11">
+        <v>0.21568627450980393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>840</v>
+      </c>
+      <c r="J12">
+        <v>581</v>
+      </c>
+      <c r="K12">
+        <v>216</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>133.5086</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>9.2866070708147443</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>0.33986928104575165</v>
+      </c>
+      <c r="R12">
+        <v>9.224025913701043</v>
+      </c>
+      <c r="S12">
+        <v>0.2581699346405229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <v>917</v>
+      </c>
+      <c r="J13">
+        <v>586</v>
+      </c>
+      <c r="K13">
+        <v>236</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>132.86160000000001</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>9.3318303315222551</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>0.40522875816993464</v>
+      </c>
+      <c r="R13">
+        <v>9.2866070708147443</v>
+      </c>
+      <c r="S13">
+        <v>0.33986928104575165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>80</v>
+      </c>
+      <c r="B14">
+        <v>992</v>
+      </c>
+      <c r="J14">
+        <v>590</v>
+      </c>
+      <c r="K14">
+        <v>256</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>132.34399999999999</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>9.3683273044080391</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="R14">
+        <v>9.3318303315222551</v>
+      </c>
+      <c r="S14">
+        <v>0.40522875816993464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>70</v>
+      </c>
+      <c r="B15">
+        <v>1071</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f>-0.1294</f>
+        <v>-0.12939999999999999</v>
+      </c>
+      <c r="J15">
+        <v>594</v>
+      </c>
+      <c r="K15">
+        <v>279</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>131.82640000000001</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>9.4051108789633737</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>0.54575163398692805</v>
+      </c>
+      <c r="R15">
+        <v>9.3683273044080391</v>
+      </c>
+      <c r="S15">
+        <v>0.47058823529411764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60</v>
+      </c>
+      <c r="B16">
+        <v>1152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>208.69</v>
+      </c>
+      <c r="J16">
+        <v>599</v>
+      </c>
+      <c r="K16">
+        <v>304</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>131.17939999999999</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>9.4514985491211085</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>0.62745098039215685</v>
+      </c>
+      <c r="R16">
+        <v>9.4051108789633737</v>
+      </c>
+      <c r="S16">
+        <v>0.54575163398692805</v>
+      </c>
+    </row>
+    <row r="17" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>602</v>
+      </c>
+      <c r="K17">
+        <v>333</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>130.7912</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>9.4795514436336497</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="R17">
+        <v>9.4514985491211085</v>
+      </c>
+      <c r="S17">
+        <v>0.62745098039215685</v>
+      </c>
+    </row>
+    <row r="18" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>606</v>
+      </c>
+      <c r="K18">
+        <v>354</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>130.27359999999999</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>9.5172153742168604</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>0.79084967320261434</v>
+      </c>
+      <c r="R18">
+        <v>9.4795514436336497</v>
+      </c>
+      <c r="S18">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="19" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>609</v>
+      </c>
+      <c r="K19">
+        <v>374</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>129.8854</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>9.545660318823959</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>0.85620915032679734</v>
+      </c>
+      <c r="R19">
+        <v>9.5172153742168604</v>
+      </c>
+      <c r="S19">
+        <v>0.79084967320261434</v>
+      </c>
+    </row>
+    <row r="20" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>613</v>
+      </c>
+      <c r="K20">
+        <v>392</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>129.36779999999999</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>9.5838524638633231</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>0.91503267973856206</v>
+      </c>
+      <c r="R20">
+        <v>9.545660318823959</v>
+      </c>
+      <c r="S20">
+        <v>0.85620915032679734</v>
+      </c>
+    </row>
+    <row r="21" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>616</v>
+      </c>
+      <c r="K21">
+        <v>405</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>128.9796</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>9.6126977349486076</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>0.95751633986928109</v>
+      </c>
+      <c r="R21">
+        <v>9.5838524638633231</v>
+      </c>
+      <c r="S21">
+        <v>0.91503267973856206</v>
+      </c>
+    </row>
+    <row r="22" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>621</v>
+      </c>
+      <c r="K22">
+        <v>416</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>128.33260000000001</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>9.6611609892932684</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>0.99346405228758172</v>
+      </c>
+      <c r="R22">
+        <v>9.6126977349486076</v>
+      </c>
+      <c r="S22">
+        <v>0.95751633986928109</v>
+      </c>
+    </row>
+    <row r="23" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>626</v>
+      </c>
+      <c r="K23">
+        <v>418</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>127.68560000000001</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>9.7101153832113987</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>9.6611609892932684</v>
+      </c>
+      <c r="S23">
+        <v>0.99346405228758172</v>
+      </c>
+    </row>
+    <row r="24" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>631</v>
+      </c>
+      <c r="K24">
+        <v>417</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>127.0386</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>9.7595684207365121</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>0.99673202614379086</v>
+      </c>
+      <c r="R24">
+        <v>9.7101153832113987</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>634</v>
+      </c>
+      <c r="K25">
+        <v>406</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>126.6504</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>9.7894827712709738</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>0.96078431372549022</v>
+      </c>
+      <c r="R25">
+        <v>9.7595684207365121</v>
+      </c>
+      <c r="S25">
+        <v>0.99673202614379086</v>
+      </c>
+    </row>
+    <row r="26" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>637</v>
+      </c>
+      <c r="K26">
+        <v>390</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>126.26220000000001</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>9.8195810684003391</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>0.90849673202614378</v>
+      </c>
+      <c r="R26">
+        <v>9.7894827712709738</v>
+      </c>
+      <c r="S26">
+        <v>0.96078431372549022</v>
+      </c>
+    </row>
+    <row r="27" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>639</v>
+      </c>
+      <c r="K27">
+        <v>375</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>126.0034</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>9.8397496319510225</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>0.85947712418300659</v>
+      </c>
+      <c r="R27">
+        <v>9.8195810684003391</v>
+      </c>
+      <c r="S27">
+        <v>0.90849673202614378</v>
+      </c>
+    </row>
+    <row r="28" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>641</v>
+      </c>
+      <c r="K28">
+        <v>356</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>125.74460000000001</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>9.8600012149593486</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>0.79738562091503273</v>
+      </c>
+      <c r="R28">
+        <v>9.8397496319510225</v>
+      </c>
+      <c r="S28">
+        <v>0.85947712418300659</v>
+      </c>
+    </row>
+    <row r="29" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>645</v>
+      </c>
+      <c r="K29">
+        <v>335</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>125.227</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>9.9007554982118666</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>0.72875816993464049</v>
+      </c>
+      <c r="R29">
+        <v>9.8600012149593486</v>
+      </c>
+      <c r="S29">
+        <v>0.79738562091503273</v>
+      </c>
+    </row>
+    <row r="30" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>647</v>
+      </c>
+      <c r="K30">
+        <v>319</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>124.96820000000001</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>9.9212592385469041</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>0.67647058823529416</v>
+      </c>
+      <c r="R30">
+        <v>9.9007554982118666</v>
+      </c>
+      <c r="S30">
+        <v>0.72875816993464049</v>
+      </c>
+    </row>
+    <row r="31" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>649</v>
+      </c>
+      <c r="K31">
+        <v>305</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>124.7094</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>9.9418480786097714</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0.63071895424836599</v>
+      </c>
+      <c r="R31">
+        <v>9.9212592385469041</v>
+      </c>
+      <c r="S31">
+        <v>0.67647058823529416</v>
+      </c>
+    </row>
+    <row r="32" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>652</v>
+      </c>
+      <c r="K32">
+        <v>284</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>124.3212</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>9.9728920632569285</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>0.56209150326797386</v>
+      </c>
+      <c r="R32">
+        <v>9.9418480786097714</v>
+      </c>
+      <c r="S32">
+        <v>0.63071895424836599</v>
+      </c>
+    </row>
+    <row r="33" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>655</v>
+      </c>
+      <c r="K33">
+        <v>261</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>123.93300000000001</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>10.004130528386929</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>0.48692810457516339</v>
+      </c>
+      <c r="R33">
+        <v>9.9728920632569285</v>
+      </c>
+      <c r="S33">
+        <v>0.56209150326797386</v>
+      </c>
+    </row>
+    <row r="34" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>660</v>
+      </c>
+      <c r="K34">
+        <v>239</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>123.286</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>10.056631805513824</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>0.41503267973856212</v>
+      </c>
+      <c r="R34">
+        <v>10.004130528386929</v>
+      </c>
+      <c r="S34">
+        <v>0.48692810457516339</v>
+      </c>
+    </row>
+    <row r="35" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>663</v>
+      </c>
+      <c r="K35">
+        <v>215</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>122.8978</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>10.088397910903021</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>0.33660130718954251</v>
+      </c>
+      <c r="R35">
+        <v>10.056631805513824</v>
+      </c>
+      <c r="S35">
+        <v>0.41503267973856212</v>
+      </c>
+    </row>
+    <row r="36" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>666</v>
+      </c>
+      <c r="K36">
+        <v>196</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>122.50960000000001</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>10.120365332794959</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>0.27450980392156865</v>
+      </c>
+      <c r="R36">
+        <v>10.088397910903021</v>
+      </c>
+      <c r="S36">
+        <v>0.33660130718954251</v>
+      </c>
+    </row>
+    <row r="37" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>671</v>
+      </c>
+      <c r="K37">
+        <v>169</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>121.8626</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>10.174096964733868</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>0.18627450980392157</v>
+      </c>
+      <c r="R37">
+        <v>10.120365332794959</v>
+      </c>
+      <c r="S37">
+        <v>0.27450980392156865</v>
+      </c>
+    </row>
+    <row r="38" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>674</v>
+      </c>
+      <c r="K38">
+        <v>148</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>121.4744</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>10.206610683193968</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="R38">
+        <v>10.174096964733868</v>
+      </c>
+      <c r="S38">
+        <v>0.18627450980392157</v>
+      </c>
+    </row>
+    <row r="39" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>678</v>
+      </c>
+      <c r="K39">
+        <v>134</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>120.9568</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>10.250286951825588</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>7.1895424836601302E-2</v>
+      </c>
+      <c r="R39">
+        <v>10.206610683193968</v>
+      </c>
+      <c r="S39">
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="40" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>684</v>
+      </c>
+      <c r="K40">
+        <v>123</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>120.18040000000001</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>10.316506757962008</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>3.5947712418300651E-2</v>
+      </c>
+      <c r="R40">
+        <v>10.250286951825588</v>
+      </c>
+      <c r="S40">
+        <v>7.1895424836601302E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>691</v>
+      </c>
+      <c r="K41">
+        <v>115</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>119.27460000000001</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>10.394852791579911</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>9.8039215686274508E-3</v>
+      </c>
+      <c r="R41">
+        <v>10.316506757962008</v>
+      </c>
+      <c r="S41">
+        <v>3.5947712418300651E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>710</v>
+      </c>
+      <c r="K42">
+        <v>112</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>116.816</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>10.613630913355854</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>10.394852791579911</v>
+      </c>
+      <c r="S42">
+        <v>9.8039215686274508E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>10.613630913355854</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <v>10.62</v>
+      </c>
+      <c r="S44">
         <v>0</v>
       </c>
     </row>

--- a/Geant_simulation/data/energy_spectrum/calib GAr NIR.xlsx
+++ b/Geant_simulation/data/energy_spectrum/calib GAr NIR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="NIR" sheetId="1" r:id="rId1"/>
@@ -328,11 +328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="183664232"/>
-        <c:axId val="183254464"/>
+        <c:axId val="207563416"/>
+        <c:axId val="205539656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="183664232"/>
+        <c:axId val="207563416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,12 +389,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183254464"/>
+        <c:crossAx val="205539656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183254464"/>
+        <c:axId val="205539656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,7 +451,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183664232"/>
+        <c:crossAx val="207563416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -701,11 +701,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="183613328"/>
-        <c:axId val="183425312"/>
+        <c:axId val="486657480"/>
+        <c:axId val="486657872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="183613328"/>
+        <c:axId val="486657480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,12 +762,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183425312"/>
+        <c:crossAx val="486657872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183425312"/>
+        <c:axId val="486657872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,7 +824,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183613328"/>
+        <c:crossAx val="486657480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1055,11 +1055,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157605848"/>
-        <c:axId val="388792400"/>
+        <c:axId val="486658656"/>
+        <c:axId val="486659048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157605848"/>
+        <c:axId val="486658656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,12 +1116,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388792400"/>
+        <c:crossAx val="486659048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388792400"/>
+        <c:axId val="486659048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1178,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="157605848"/>
+        <c:crossAx val="486658656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1478,11 +1478,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="434339472"/>
-        <c:axId val="434341040"/>
+        <c:axId val="488775952"/>
+        <c:axId val="488776344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="434339472"/>
+        <c:axId val="488775952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,12 +1539,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434341040"/>
+        <c:crossAx val="488776344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="434341040"/>
+        <c:axId val="488776344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,7 +1601,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434339472"/>
+        <c:crossAx val="488775952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1665,7 +1665,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2000,11 +1999,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="437071416"/>
-        <c:axId val="437071024"/>
+        <c:axId val="488777520"/>
+        <c:axId val="488777912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="437071416"/>
+        <c:axId val="488777520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,12 +2060,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437071024"/>
+        <c:crossAx val="488777912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="437071024"/>
+        <c:axId val="488777912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,7 +2122,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437071416"/>
+        <c:crossAx val="488777520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2187,7 +2186,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2522,11 +2520,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382910416"/>
-        <c:axId val="388795536"/>
+        <c:axId val="488778696"/>
+        <c:axId val="488779088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382910416"/>
+        <c:axId val="488778696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2583,12 +2581,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388795536"/>
+        <c:crossAx val="488779088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388795536"/>
+        <c:axId val="488779088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2645,7 +2643,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382910416"/>
+        <c:crossAx val="488778696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2709,7 +2707,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3044,11 +3041,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="386601272"/>
-        <c:axId val="388794752"/>
+        <c:axId val="488775560"/>
+        <c:axId val="488779872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="386601272"/>
+        <c:axId val="488775560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3105,12 +3102,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388794752"/>
+        <c:crossAx val="488779872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388794752"/>
+        <c:axId val="488779872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,7 +3164,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386601272"/>
+        <c:crossAx val="488775560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7617,17 +7614,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7641,7 +7638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>247</v>
       </c>
@@ -7655,7 +7652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>399</v>
       </c>
@@ -7669,7 +7666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>551</v>
       </c>
@@ -7683,7 +7680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>703</v>
       </c>
@@ -7697,7 +7694,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>856</v>
       </c>
@@ -7711,7 +7708,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1008</v>
       </c>
@@ -7725,7 +7722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -7739,7 +7736,7 @@
         <v>0.18720000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -7753,7 +7750,7 @@
         <v>-26.8</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O21">
         <v>1.8</v>
       </c>
@@ -7761,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -7799,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>236</v>
       </c>
@@ -7842,7 +7839,7 @@
         <v>0.15391970517530382</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>330</v>
       </c>
@@ -7875,7 +7872,7 @@
         <v>3.29897066850416E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>399</v>
       </c>
@@ -7891,11 +7888,11 @@
         <v>17.379200000000001</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f>E25/$F$23</f>
         <v>4.2048133538244756E-2</v>
       </c>
       <c r="L25">
-        <f t="shared" ref="L24:L35" si="3">2*$K$23 * $J$23 / D25</f>
+        <f t="shared" ref="L25:L35" si="3">2*$K$23 * $J$23 / D25</f>
         <v>1.6530751568782727</v>
       </c>
       <c r="M25">
@@ -7908,7 +7905,7 @@
         <v>4.2048133538244756E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>440</v>
       </c>
@@ -7941,7 +7938,7 @@
         <v>0.15165509846200301</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>465</v>
       </c>
@@ -7974,7 +7971,7 @@
         <v>0.21506408643442512</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>534</v>
       </c>
@@ -8007,7 +8004,7 @@
         <v>1.2608246265334489E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>553</v>
       </c>
@@ -8040,7 +8037,7 @@
         <v>3.4801392055682237E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>584</v>
       </c>
@@ -8073,7 +8070,7 @@
         <v>4.3406897566225226E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>629</v>
       </c>
@@ -8106,7 +8103,7 @@
         <v>0.17022487351106949</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>679</v>
       </c>
@@ -8139,7 +8136,7 @@
         <v>4.521858293686587E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>891</v>
       </c>
@@ -8172,7 +8169,7 @@
         <v>6.5147122013912803E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>922</v>
       </c>
@@ -8205,7 +8202,7 @@
         <v>1.7137459691936068E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1054</v>
       </c>
@@ -8238,7 +8235,7 @@
         <v>1.5778695663955598E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O36">
         <v>1.28</v>
       </c>
@@ -8246,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O37">
         <v>1.27</v>
       </c>
@@ -8268,13 +8265,13 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8303,7 +8300,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>200</v>
       </c>
@@ -8352,7 +8349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>190</v>
       </c>
@@ -8390,7 +8387,7 @@
         <v>3.1415926000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>180</v>
       </c>
@@ -8422,7 +8419,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>170</v>
       </c>
@@ -8454,7 +8451,7 @@
         <v>4.9019607843137254E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>160</v>
       </c>
@@ -8486,7 +8483,7 @@
         <v>6.8627450980392163E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>150</v>
       </c>
@@ -8518,7 +8515,7 @@
         <v>9.8039215686274508E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>140</v>
       </c>
@@ -8550,7 +8547,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>130</v>
       </c>
@@ -8582,7 +8579,7 @@
         <v>0.14052287581699346</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>120</v>
       </c>
@@ -8614,7 +8611,7 @@
         <v>0.16993464052287582</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>110</v>
       </c>
@@ -8646,7 +8643,7 @@
         <v>0.21568627450980393</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>100</v>
       </c>
@@ -8678,7 +8675,7 @@
         <v>0.2581699346405229</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>90</v>
       </c>
@@ -8710,7 +8707,7 @@
         <v>0.33986928104575165</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>80</v>
       </c>
@@ -8742,7 +8739,7 @@
         <v>0.40522875816993464</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>70</v>
       </c>
@@ -8781,7 +8778,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>60</v>
       </c>
@@ -8819,7 +8816,7 @@
         <v>0.54575163398692805</v>
       </c>
     </row>
-    <row r="17" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J17">
         <v>602</v>
       </c>
@@ -8845,7 +8842,7 @@
         <v>0.62745098039215685</v>
       </c>
     </row>
-    <row r="18" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J18">
         <v>606</v>
       </c>
@@ -8871,7 +8868,7 @@
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="19" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J19">
         <v>609</v>
       </c>
@@ -8897,7 +8894,7 @@
         <v>0.79084967320261434</v>
       </c>
     </row>
-    <row r="20" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J20">
         <v>613</v>
       </c>
@@ -8923,7 +8920,7 @@
         <v>0.85620915032679734</v>
       </c>
     </row>
-    <row r="21" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J21">
         <v>616</v>
       </c>
@@ -8949,7 +8946,7 @@
         <v>0.91503267973856206</v>
       </c>
     </row>
-    <row r="22" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J22">
         <v>621</v>
       </c>
@@ -8975,7 +8972,7 @@
         <v>0.95751633986928109</v>
       </c>
     </row>
-    <row r="23" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J23">
         <v>626</v>
       </c>
@@ -9001,7 +8998,7 @@
         <v>0.99346405228758172</v>
       </c>
     </row>
-    <row r="24" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J24">
         <v>631</v>
       </c>
@@ -9027,7 +9024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J25">
         <v>634</v>
       </c>
@@ -9053,7 +9050,7 @@
         <v>0.99673202614379086</v>
       </c>
     </row>
-    <row r="26" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J26">
         <v>637</v>
       </c>
@@ -9079,7 +9076,7 @@
         <v>0.96078431372549022</v>
       </c>
     </row>
-    <row r="27" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J27">
         <v>639</v>
       </c>
@@ -9105,7 +9102,7 @@
         <v>0.90849673202614378</v>
       </c>
     </row>
-    <row r="28" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J28">
         <v>641</v>
       </c>
@@ -9131,7 +9128,7 @@
         <v>0.85947712418300659</v>
       </c>
     </row>
-    <row r="29" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J29">
         <v>645</v>
       </c>
@@ -9157,7 +9154,7 @@
         <v>0.79738562091503273</v>
       </c>
     </row>
-    <row r="30" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J30">
         <v>647</v>
       </c>
@@ -9183,7 +9180,7 @@
         <v>0.72875816993464049</v>
       </c>
     </row>
-    <row r="31" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J31">
         <v>649</v>
       </c>
@@ -9209,7 +9206,7 @@
         <v>0.67647058823529416</v>
       </c>
     </row>
-    <row r="32" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J32">
         <v>652</v>
       </c>
@@ -9235,7 +9232,7 @@
         <v>0.63071895424836599</v>
       </c>
     </row>
-    <row r="33" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J33">
         <v>655</v>
       </c>
@@ -9261,7 +9258,7 @@
         <v>0.56209150326797386</v>
       </c>
     </row>
-    <row r="34" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J34">
         <v>660</v>
       </c>
@@ -9287,7 +9284,7 @@
         <v>0.48692810457516339</v>
       </c>
     </row>
-    <row r="35" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J35">
         <v>663</v>
       </c>
@@ -9313,7 +9310,7 @@
         <v>0.41503267973856212</v>
       </c>
     </row>
-    <row r="36" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J36">
         <v>666</v>
       </c>
@@ -9339,7 +9336,7 @@
         <v>0.33660130718954251</v>
       </c>
     </row>
-    <row r="37" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J37">
         <v>671</v>
       </c>
@@ -9365,7 +9362,7 @@
         <v>0.27450980392156865</v>
       </c>
     </row>
-    <row r="38" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J38">
         <v>674</v>
       </c>
@@ -9391,7 +9388,7 @@
         <v>0.18627450980392157</v>
       </c>
     </row>
-    <row r="39" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J39">
         <v>678</v>
       </c>
@@ -9417,7 +9414,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="40" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J40">
         <v>684</v>
       </c>
@@ -9443,7 +9440,7 @@
         <v>7.1895424836601302E-2</v>
       </c>
     </row>
-    <row r="41" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J41">
         <v>691</v>
       </c>
@@ -9469,7 +9466,7 @@
         <v>3.5947712418300651E-2</v>
       </c>
     </row>
-    <row r="42" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J42">
         <v>710</v>
       </c>
@@ -9495,7 +9492,7 @@
         <v>9.8039215686274508E-3</v>
       </c>
     </row>
-    <row r="43" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="10:19" x14ac:dyDescent="0.3">
       <c r="R43">
         <v>10.613630913355854</v>
       </c>
@@ -9503,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="10:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="10:19" x14ac:dyDescent="0.3">
       <c r="R44">
         <v>10.62</v>
       </c>

--- a/Geant_simulation/data/energy_spectrum/calib GAr NIR.xlsx
+++ b/Geant_simulation/data/energy_spectrum/calib GAr NIR.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NIR" sheetId="1" r:id="rId1"/>
-    <sheet name="VUV" sheetId="2" r:id="rId2"/>
+    <sheet name="T_Heindl_2011_J._Inst._6_P02011" sheetId="3" r:id="rId2"/>
+    <sheet name="VUV" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t xml:space="preserve">x pix </t>
   </si>
@@ -84,6 +85,27 @@
   </si>
   <si>
     <t>amp</t>
+  </si>
+  <si>
+    <t>wavelength (nm)</t>
+  </si>
+  <si>
+    <t>LAr scintilation</t>
+  </si>
+  <si>
+    <t>T_Heindl_2011_J._Inst._6_P02011</t>
+  </si>
+  <si>
+    <t>Amp</t>
+  </si>
+  <si>
+    <t>Norm</t>
+  </si>
+  <si>
+    <t>Energy, eV</t>
+  </si>
+  <si>
+    <t>wavelength (nm) 300 - 930</t>
   </si>
 </sst>
 </file>
@@ -328,11 +350,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207563416"/>
-        <c:axId val="205539656"/>
+        <c:axId val="137264600"/>
+        <c:axId val="138163608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207563416"/>
+        <c:axId val="137264600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -389,12 +411,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205539656"/>
+        <c:crossAx val="138163608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205539656"/>
+        <c:axId val="138163608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -451,7 +473,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207563416"/>
+        <c:crossAx val="137264600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -701,11 +723,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486657480"/>
-        <c:axId val="486657872"/>
+        <c:axId val="225200928"/>
+        <c:axId val="225198680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486657480"/>
+        <c:axId val="225200928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,12 +784,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486657872"/>
+        <c:crossAx val="225198680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486657872"/>
+        <c:axId val="225198680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,7 +846,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486657480"/>
+        <c:crossAx val="225200928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1055,11 +1077,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="486658656"/>
-        <c:axId val="486659048"/>
+        <c:axId val="225394056"/>
+        <c:axId val="225379560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="486658656"/>
+        <c:axId val="225394056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,12 +1138,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486659048"/>
+        <c:crossAx val="225379560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="486659048"/>
+        <c:axId val="225379560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1200,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486658656"/>
+        <c:crossAx val="225394056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1228,6 +1250,480 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>T_Heindl_2011_J._Inst._6_P02011!$E$5:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>323.57600000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336.22399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>359.28800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>372.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>389.048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>409.13600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>429.22399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>453.77600000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>479.81599999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>494.69600000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>511.06400000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>530.40800000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>547.52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>557.93600000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>562.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>575.048</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>592.16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>610.01599999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>622.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>638.28800000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>656.14400000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>674.74400000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>693.34400000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>711.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>732.03200000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>764.024</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>793.78399999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>821.31200000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>854.79200000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>895.71199999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>921.75199999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>929.93600000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>T_Heindl_2011_J._Inst._6_P02011!$G$5:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.91672021340810395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9226687695932394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94646299433378112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85723465155674972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79774908970539549</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8453375391864788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89292598866756223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90482310103783314</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.833440426816208</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7442120840391766</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71446930311349954</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72636641548377046</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71446930311349954</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9226687695932394</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70852074692836409</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.6192924041513328</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56575539848511391</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5181669490040306</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.50626983663375968</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.63713807270673894</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.67282940981755157</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.60144673559592643</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.51221839281889514</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.44678427478240551</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.4289386062269992</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.41109293767159294</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.39324726911618668</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.35160737582023865</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.35160737582023865</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.35160737582023865</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.33971026344996785</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.28022470159861357</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="225332992"/>
+        <c:axId val="193452968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="225332992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="193452968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="193452968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225332992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1478,11 +1974,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="488775952"/>
-        <c:axId val="488776344"/>
+        <c:axId val="225330640"/>
+        <c:axId val="225331032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="488775952"/>
+        <c:axId val="225330640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1539,12 +2035,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488776344"/>
+        <c:crossAx val="225331032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="488776344"/>
+        <c:axId val="225331032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,7 +2097,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488775952"/>
+        <c:crossAx val="225330640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1650,7 +2146,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1665,6 +2161,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1999,11 +2496,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="488777520"/>
-        <c:axId val="488777912"/>
+        <c:axId val="225331816"/>
+        <c:axId val="225332208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="488777520"/>
+        <c:axId val="225331816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,12 +2557,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488777912"/>
+        <c:crossAx val="225332208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="488777912"/>
+        <c:axId val="225332208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,7 +2619,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488777520"/>
+        <c:crossAx val="225331816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2171,7 +2668,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2186,6 +2683,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2520,11 +3018,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="488778696"/>
-        <c:axId val="488779088"/>
+        <c:axId val="225333384"/>
+        <c:axId val="225333776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="488778696"/>
+        <c:axId val="225333384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,12 +3079,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488779088"/>
+        <c:crossAx val="225333776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="488779088"/>
+        <c:axId val="225333776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2643,7 +3141,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488778696"/>
+        <c:crossAx val="225333384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2692,7 +3190,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2707,6 +3205,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3041,11 +3540,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="488775560"/>
-        <c:axId val="488779872"/>
+        <c:axId val="226160544"/>
+        <c:axId val="226160936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="488775560"/>
+        <c:axId val="226160544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3102,12 +3601,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488779872"/>
+        <c:crossAx val="226160936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="488779872"/>
+        <c:axId val="226160936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3164,7 +3663,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488775560"/>
+        <c:crossAx val="226160544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3493,6 +3992,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6590,6 +7129,522 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7201,6 +8256,41 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7614,17 +8704,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7638,7 +8728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>247</v>
       </c>
@@ -7652,7 +8742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>399</v>
       </c>
@@ -7666,7 +8756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>551</v>
       </c>
@@ -7680,7 +8770,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>703</v>
       </c>
@@ -7694,7 +8784,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>856</v>
       </c>
@@ -7708,7 +8798,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1008</v>
       </c>
@@ -7722,7 +8812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -7736,7 +8826,7 @@
         <v>0.18720000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -7750,7 +8840,7 @@
         <v>-26.8</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O21">
         <v>1.8</v>
       </c>
@@ -7758,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -7796,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>236</v>
       </c>
@@ -7839,7 +8929,7 @@
         <v>0.15391970517530382</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>330</v>
       </c>
@@ -7872,7 +8962,7 @@
         <v>3.29897066850416E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>399</v>
       </c>
@@ -7905,7 +8995,7 @@
         <v>4.2048133538244756E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>440</v>
       </c>
@@ -7938,7 +9028,7 @@
         <v>0.15165509846200301</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>465</v>
       </c>
@@ -7971,7 +9061,7 @@
         <v>0.21506408643442512</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>534</v>
       </c>
@@ -8004,7 +9094,7 @@
         <v>1.2608246265334489E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>553</v>
       </c>
@@ -8037,7 +9127,7 @@
         <v>3.4801392055682237E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>584</v>
       </c>
@@ -8070,7 +9160,7 @@
         <v>4.3406897566225226E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>629</v>
       </c>
@@ -8103,7 +9193,7 @@
         <v>0.17022487351106949</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>679</v>
       </c>
@@ -8136,7 +9226,7 @@
         <v>4.521858293686587E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>891</v>
       </c>
@@ -8169,7 +9259,7 @@
         <v>6.5147122013912803E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>922</v>
       </c>
@@ -8202,7 +9292,7 @@
         <v>1.7137459691936068E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1054</v>
       </c>
@@ -8235,7 +9325,7 @@
         <v>1.5778695663955598E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O36">
         <v>1.28</v>
       </c>
@@ -8243,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="O37">
         <v>1.27</v>
       </c>
@@ -8259,19 +9349,1580 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <f>1240/E3</f>
+        <v>6.2</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>941.6</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G4" si="0">F3/MAX($F$5:$F$37)</f>
+        <v>0.91672021340810395</v>
+      </c>
+      <c r="I3">
+        <f>D3</f>
+        <v>6.2</v>
+      </c>
+      <c r="J3">
+        <f>G3</f>
+        <v>0.91672021340810395</v>
+      </c>
+      <c r="L3">
+        <v>1.24</v>
+      </c>
+      <c r="M3">
+        <v>0.28022470159861357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>251.40799999999999</v>
+      </c>
+      <c r="B4">
+        <v>373.37</v>
+      </c>
+      <c r="D4">
+        <f>1240/E4</f>
+        <v>4.1333333333333337</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>941.6</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.91672021340810395</v>
+      </c>
+      <c r="I4">
+        <f>D4</f>
+        <v>4.1333333333333337</v>
+      </c>
+      <c r="J4">
+        <f>G4</f>
+        <v>0.91672021340810395</v>
+      </c>
+      <c r="L4">
+        <v>1.3334250959205793</v>
+      </c>
+      <c r="M4">
+        <v>0.28022470159861357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>255.87200000000001</v>
+      </c>
+      <c r="B5">
+        <v>532.23</v>
+      </c>
+      <c r="D5">
+        <f>1240/E5</f>
+        <v>4.1059602649006619</v>
+      </c>
+      <c r="E5">
+        <v>302</v>
+      </c>
+      <c r="F5">
+        <v>941.6</v>
+      </c>
+      <c r="G5">
+        <f>F5/MAX($F$5:$F$37)</f>
+        <v>0.91672021340810395</v>
+      </c>
+      <c r="I5">
+        <f>D5</f>
+        <v>4.1059602649006619</v>
+      </c>
+      <c r="J5">
+        <f>G5</f>
+        <v>0.91672021340810395</v>
+      </c>
+      <c r="L5">
+        <v>1.3452642359333096</v>
+      </c>
+      <c r="M5">
+        <v>0.33971026344996785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>257.36</v>
+      </c>
+      <c r="B6">
+        <v>654.42999999999995</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D38" si="1">1240/E6</f>
+        <v>3.8321754394639895</v>
+      </c>
+      <c r="E6">
+        <v>323.57600000000002</v>
+      </c>
+      <c r="F6">
+        <v>947.71</v>
+      </c>
+      <c r="G6">
+        <f>F6/MAX($F$5:$F$37)</f>
+        <v>0.9226687695932394</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I38" si="2">D6</f>
+        <v>3.8321754394639895</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J38" si="3">G6</f>
+        <v>0.9226687695932394</v>
+      </c>
+      <c r="L6">
+        <v>1.3843735486406346</v>
+      </c>
+      <c r="M6">
+        <v>0.35160737582023865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>259.59199999999998</v>
+      </c>
+      <c r="B7">
+        <v>813.29</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>3.6880175121347674</v>
+      </c>
+      <c r="E7">
+        <v>336.22399999999999</v>
+      </c>
+      <c r="F7">
+        <v>1027.1400000000001</v>
+      </c>
+      <c r="G7">
+        <f>F7/MAX($F$5:$F$37)</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>3.6880175121347674</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1.4506453031848683</v>
+      </c>
+      <c r="M7">
+        <v>0.35160737582023865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>261.82400000000001</v>
+      </c>
+      <c r="B8">
+        <v>990.48</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>3.4512702901293668</v>
+      </c>
+      <c r="E8">
+        <v>359.28800000000001</v>
+      </c>
+      <c r="F8">
+        <v>972.15</v>
+      </c>
+      <c r="G8">
+        <f>F8/MAX($F$5:$F$37)</f>
+        <v>0.94646299433378112</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>3.4512702901293668</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0.94646299433378112</v>
+      </c>
+      <c r="L8">
+        <v>1.5097794747915529</v>
+      </c>
+      <c r="M8">
+        <v>0.35160737582023865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>263.31200000000001</v>
+      </c>
+      <c r="B9">
+        <v>1167.67</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>3.3272512611355585</v>
+      </c>
+      <c r="E9">
+        <v>372.68</v>
+      </c>
+      <c r="F9">
+        <v>880.5</v>
+      </c>
+      <c r="G9">
+        <f>F9/MAX($F$5:$F$37)</f>
+        <v>0.85723465155674972</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>3.3272512611355585</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0.85723465155674972</v>
+      </c>
+      <c r="L9">
+        <v>1.5621378107898372</v>
+      </c>
+      <c r="M9">
+        <v>0.39324726911618668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>264.05599999999998</v>
+      </c>
+      <c r="B10">
+        <v>1314.31</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>3.1872673808887333</v>
+      </c>
+      <c r="E10">
+        <v>389.048</v>
+      </c>
+      <c r="F10">
+        <v>819.4</v>
+      </c>
+      <c r="G10">
+        <f>F10/MAX($F$5:$F$37)</f>
+        <v>0.79774908970539549</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>3.1872673808887333</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0.79774908970539549</v>
+      </c>
+      <c r="L10">
+        <v>1.6229856653717685</v>
+      </c>
+      <c r="M10">
+        <v>0.41109293767159294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>265.54399999999998</v>
+      </c>
+      <c r="B11">
+        <v>1479.28</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>3.0307770521293653</v>
+      </c>
+      <c r="E11">
+        <v>409.13600000000002</v>
+      </c>
+      <c r="F11">
+        <v>868.28</v>
+      </c>
+      <c r="G11">
+        <f>F11/MAX($F$5:$F$37)</f>
+        <v>0.8453375391864788</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>3.0307770521293653</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0.8453375391864788</v>
+      </c>
+      <c r="L11">
+        <v>1.6939150201084106</v>
+      </c>
+      <c r="M11">
+        <v>0.4289386062269992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>266.28800000000001</v>
+      </c>
+      <c r="B12">
+        <v>1644.25</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2.8889344491454345</v>
+      </c>
+      <c r="E12">
+        <v>429.22399999999999</v>
+      </c>
+      <c r="F12">
+        <v>917.16</v>
+      </c>
+      <c r="G12">
+        <f>F12/MAX($F$5:$F$37)</f>
+        <v>0.89292598866756223</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>2.8889344491454345</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0.89292598866756223</v>
+      </c>
+      <c r="L12">
+        <v>1.7435320584926883</v>
+      </c>
+      <c r="M12">
+        <v>0.44678427478240551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>268.52</v>
+      </c>
+      <c r="B13">
+        <v>1790.89</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>2.7326257889355099</v>
+      </c>
+      <c r="E13">
+        <v>453.77600000000001</v>
+      </c>
+      <c r="F13">
+        <v>929.38</v>
+      </c>
+      <c r="G13">
+        <f>F13/MAX($F$5:$F$37)</f>
+        <v>0.90482310103783314</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>2.7326257889355099</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.90482310103783314</v>
+      </c>
+      <c r="L13">
+        <v>1.788434024091937</v>
+      </c>
+      <c r="M13">
+        <v>0.51221839281889514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>269.26400000000001</v>
+      </c>
+      <c r="B14">
+        <v>1943.64</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>2.5843239908631643</v>
+      </c>
+      <c r="E14">
+        <v>479.81599999999997</v>
+      </c>
+      <c r="F14">
+        <v>856.06</v>
+      </c>
+      <c r="G14">
+        <f>F14/MAX($F$5:$F$37)</f>
+        <v>0.833440426816208</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>2.5843239908631643</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0.833440426816208</v>
+      </c>
+      <c r="L14">
+        <v>1.8377340146781593</v>
+      </c>
+      <c r="M14">
+        <v>0.60144673559592643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>270.75200000000001</v>
+      </c>
+      <c r="B15">
+        <v>2194.15</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>2.5065899057198764</v>
+      </c>
+      <c r="E15">
+        <v>494.69600000000003</v>
+      </c>
+      <c r="F15">
+        <v>764.41</v>
+      </c>
+      <c r="G15">
+        <f>F15/MAX($F$5:$F$37)</f>
+        <v>0.7442120840391766</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>2.5065899057198764</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0.7442120840391766</v>
+      </c>
+      <c r="L15">
+        <v>1.8898290619132385</v>
+      </c>
+      <c r="M15">
+        <v>0.67282940981755157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>273.72800000000001</v>
+      </c>
+      <c r="B16">
+        <v>2255.25</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>2.4263105990639136</v>
+      </c>
+      <c r="E16">
+        <v>511.06400000000002</v>
+      </c>
+      <c r="F16">
+        <v>733.86</v>
+      </c>
+      <c r="G16">
+        <f>F16/MAX($F$5:$F$37)</f>
+        <v>0.71446930311349954</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>2.4263105990639136</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0.71446930311349954</v>
+      </c>
+      <c r="L16">
+        <v>1.942696713709172</v>
+      </c>
+      <c r="M16">
+        <v>0.63713807270673894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>275.21600000000001</v>
+      </c>
+      <c r="B17">
+        <v>2377.4499999999998</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>2.3378229589297295</v>
+      </c>
+      <c r="E17">
+        <v>530.40800000000002</v>
+      </c>
+      <c r="F17">
+        <v>746.08</v>
+      </c>
+      <c r="G17">
+        <f>F17/MAX($F$5:$F$37)</f>
+        <v>0.72636641548377046</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>2.3378229589297295</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>0.72636641548377046</v>
+      </c>
+      <c r="L17">
+        <v>1.9914432181722406</v>
+      </c>
+      <c r="M17">
+        <v>0.50626983663375968</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>276.70400000000001</v>
+      </c>
+      <c r="B18">
+        <v>2585.19</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>2.2647574517825833</v>
+      </c>
+      <c r="E18">
+        <v>547.52</v>
+      </c>
+      <c r="F18">
+        <v>733.86</v>
+      </c>
+      <c r="G18">
+        <f>F18/MAX($F$5:$F$37)</f>
+        <v>0.71446930311349954</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>2.2647574517825833</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>0.71446930311349954</v>
+      </c>
+      <c r="L18">
+        <v>2.0327335676441276</v>
+      </c>
+      <c r="M18">
+        <v>0.5181669490040306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>277.44799999999998</v>
+      </c>
+      <c r="B19">
+        <v>2359.12</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>2.2224771299934041</v>
+      </c>
+      <c r="E19">
+        <v>557.93600000000004</v>
+      </c>
+      <c r="F19">
+        <v>947.71</v>
+      </c>
+      <c r="G19">
+        <f>F19/MAX($F$5:$F$37)</f>
+        <v>0.9226687695932394</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>2.2224771299934041</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0.9226687695932394</v>
+      </c>
+      <c r="L19">
+        <v>2.094028640907863</v>
+      </c>
+      <c r="M19">
+        <v>0.56575539848511391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>281.16800000000001</v>
+      </c>
+      <c r="B20">
+        <v>2267.4699999999998</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>2.2048364153627311</v>
+      </c>
+      <c r="E20">
+        <v>562.4</v>
+      </c>
+      <c r="F20">
+        <v>727.75</v>
+      </c>
+      <c r="G20">
+        <f>F20/MAX($F$5:$F$37)</f>
+        <v>0.70852074692836409</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>2.2048364153627311</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>0.70852074692836409</v>
+      </c>
+      <c r="L20">
+        <v>2.156341731472851</v>
+      </c>
+      <c r="M20">
+        <v>0.6192924041513328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>282.65600000000001</v>
+      </c>
+      <c r="B21">
+        <v>2261.36</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>2.156341731472851</v>
+      </c>
+      <c r="E21">
+        <v>575.048</v>
+      </c>
+      <c r="F21">
+        <v>636.1</v>
+      </c>
+      <c r="G21">
+        <f>F21/MAX($F$5:$F$37)</f>
+        <v>0.6192924041513328</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>2.156341731472851</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>0.6192924041513328</v>
+      </c>
+      <c r="L21">
+        <v>2.2048364153627311</v>
+      </c>
+      <c r="M21">
+        <v>0.70852074692836409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>284.88799999999998</v>
+      </c>
+      <c r="B22">
+        <v>2010.85</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>2.094028640907863</v>
+      </c>
+      <c r="E22">
+        <v>592.16</v>
+      </c>
+      <c r="F22">
+        <v>581.11</v>
+      </c>
+      <c r="G22">
+        <f>F22/MAX($F$5:$F$37)</f>
+        <v>0.56575539848511391</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>2.094028640907863</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0.56575539848511391</v>
+      </c>
+      <c r="L22">
+        <v>2.2224771299934041</v>
+      </c>
+      <c r="M22">
+        <v>0.9226687695932394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>287.12</v>
+      </c>
+      <c r="B23">
+        <v>1937.53</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>2.0327335676441276</v>
+      </c>
+      <c r="E23">
+        <v>610.01599999999996</v>
+      </c>
+      <c r="F23">
+        <v>532.23</v>
+      </c>
+      <c r="G23">
+        <f>F23/MAX($F$5:$F$37)</f>
+        <v>0.5181669490040306</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>2.0327335676441276</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>0.5181669490040306</v>
+      </c>
+      <c r="L23">
+        <v>2.2647574517825833</v>
+      </c>
+      <c r="M23">
+        <v>0.71446930311349954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>288.608</v>
+      </c>
+      <c r="B24">
+        <v>1656.47</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>1.9914432181722406</v>
+      </c>
+      <c r="E24">
+        <v>622.66399999999999</v>
+      </c>
+      <c r="F24">
+        <v>520.01</v>
+      </c>
+      <c r="G24">
+        <f>F24/MAX($F$5:$F$37)</f>
+        <v>0.50626983663375968</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>1.9914432181722406</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>0.50626983663375968</v>
+      </c>
+      <c r="L24">
+        <v>2.3378229589297295</v>
+      </c>
+      <c r="M24">
+        <v>0.72636641548377046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>290.096</v>
+      </c>
+      <c r="B25">
+        <v>1467.06</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1.942696713709172</v>
+      </c>
+      <c r="E25">
+        <v>638.28800000000001</v>
+      </c>
+      <c r="F25">
+        <v>654.42999999999995</v>
+      </c>
+      <c r="G25">
+        <f>F25/MAX($F$5:$F$37)</f>
+        <v>0.63713807270673894</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1.942696713709172</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>0.63713807270673894</v>
+      </c>
+      <c r="L25">
+        <v>2.4263105990639136</v>
+      </c>
+      <c r="M25">
+        <v>0.71446930311349954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>292.32799999999997</v>
+      </c>
+      <c r="B26">
+        <v>1259.32</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>1.8898290619132385</v>
+      </c>
+      <c r="E26">
+        <v>656.14400000000001</v>
+      </c>
+      <c r="F26">
+        <v>691.09</v>
+      </c>
+      <c r="G26">
+        <f>F26/MAX($F$5:$F$37)</f>
+        <v>0.67282940981755157</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>1.8898290619132385</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>0.67282940981755157</v>
+      </c>
+      <c r="L26">
+        <v>2.5065899057198764</v>
+      </c>
+      <c r="M26">
+        <v>0.7442120840391766</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>297.536</v>
+      </c>
+      <c r="B27">
+        <v>1069.9100000000001</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>1.8377340146781593</v>
+      </c>
+      <c r="E27">
+        <v>674.74400000000003</v>
+      </c>
+      <c r="F27">
+        <v>617.77</v>
+      </c>
+      <c r="G27">
+        <f>F27/MAX($F$5:$F$37)</f>
+        <v>0.60144673559592643</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>1.8377340146781593</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>0.60144673559592643</v>
+      </c>
+      <c r="L27">
+        <v>2.5843239908631643</v>
+      </c>
+      <c r="M27">
+        <v>0.833440426816208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>302</v>
+      </c>
+      <c r="B28">
+        <v>941.6</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>1.788434024091937</v>
+      </c>
+      <c r="E28">
+        <v>693.34400000000005</v>
+      </c>
+      <c r="F28">
+        <v>526.12</v>
+      </c>
+      <c r="G28">
+        <f>F28/MAX($F$5:$F$37)</f>
+        <v>0.51221839281889514</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>1.788434024091937</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>0.51221839281889514</v>
+      </c>
+      <c r="L28">
+        <v>2.7326257889355099</v>
+      </c>
+      <c r="M28">
+        <v>0.90482310103783314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>323.57600000000002</v>
+      </c>
+      <c r="B29">
+        <v>947.71</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>1.7435320584926883</v>
+      </c>
+      <c r="E29">
+        <v>711.2</v>
+      </c>
+      <c r="F29">
+        <v>458.91</v>
+      </c>
+      <c r="G29">
+        <f>F29/MAX($F$5:$F$37)</f>
+        <v>0.44678427478240551</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>1.7435320584926883</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>0.44678427478240551</v>
+      </c>
+      <c r="L29">
+        <v>2.8889344491454345</v>
+      </c>
+      <c r="M29">
+        <v>0.89292598866756223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>336.22399999999999</v>
+      </c>
+      <c r="B30">
+        <v>1027.1400000000001</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>1.6939150201084106</v>
+      </c>
+      <c r="E30">
+        <v>732.03200000000004</v>
+      </c>
+      <c r="F30">
+        <v>440.58</v>
+      </c>
+      <c r="G30">
+        <f>F30/MAX($F$5:$F$37)</f>
+        <v>0.4289386062269992</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>1.6939150201084106</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>0.4289386062269992</v>
+      </c>
+      <c r="L30">
+        <v>3.0307770521293653</v>
+      </c>
+      <c r="M30">
+        <v>0.8453375391864788</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>359.28800000000001</v>
+      </c>
+      <c r="B31">
+        <v>972.15</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>1.6229856653717685</v>
+      </c>
+      <c r="E31">
+        <v>764.024</v>
+      </c>
+      <c r="F31">
+        <v>422.25</v>
+      </c>
+      <c r="G31">
+        <f>F31/MAX($F$5:$F$37)</f>
+        <v>0.41109293767159294</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>1.6229856653717685</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0.41109293767159294</v>
+      </c>
+      <c r="L31">
+        <v>3.1872673808887333</v>
+      </c>
+      <c r="M31">
+        <v>0.79774908970539549</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>372.68</v>
+      </c>
+      <c r="B32">
+        <v>880.5</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>1.5621378107898372</v>
+      </c>
+      <c r="E32">
+        <v>793.78399999999999</v>
+      </c>
+      <c r="F32">
+        <v>403.92</v>
+      </c>
+      <c r="G32">
+        <f>F32/MAX($F$5:$F$37)</f>
+        <v>0.39324726911618668</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>1.5621378107898372</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>0.39324726911618668</v>
+      </c>
+      <c r="L32">
+        <v>3.3272512611355585</v>
+      </c>
+      <c r="M32">
+        <v>0.85723465155674972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>389.048</v>
+      </c>
+      <c r="B33">
+        <v>819.4</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>1.5097794747915529</v>
+      </c>
+      <c r="E33">
+        <v>821.31200000000001</v>
+      </c>
+      <c r="F33">
+        <v>361.15</v>
+      </c>
+      <c r="G33">
+        <f>F33/MAX($F$5:$F$37)</f>
+        <v>0.35160737582023865</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>1.5097794747915529</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>0.35160737582023865</v>
+      </c>
+      <c r="L33">
+        <v>3.4512702901293668</v>
+      </c>
+      <c r="M33">
+        <v>0.94646299433378112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>409.13600000000002</v>
+      </c>
+      <c r="B34">
+        <v>868.28</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>1.4506453031848683</v>
+      </c>
+      <c r="E34">
+        <v>854.79200000000003</v>
+      </c>
+      <c r="F34">
+        <v>361.15</v>
+      </c>
+      <c r="G34">
+        <f>F34/MAX($F$5:$F$37)</f>
+        <v>0.35160737582023865</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>1.4506453031848683</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>0.35160737582023865</v>
+      </c>
+      <c r="L34">
+        <v>3.6880175121347674</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>429.22399999999999</v>
+      </c>
+      <c r="B35">
+        <v>917.16</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>1.3843735486406346</v>
+      </c>
+      <c r="E35">
+        <v>895.71199999999999</v>
+      </c>
+      <c r="F35">
+        <v>361.15</v>
+      </c>
+      <c r="G35">
+        <f>F35/MAX($F$5:$F$37)</f>
+        <v>0.35160737582023865</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>1.3843735486406346</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>0.35160737582023865</v>
+      </c>
+      <c r="L35">
+        <v>3.8321754394639895</v>
+      </c>
+      <c r="M35">
+        <v>0.9226687695932394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>453.77600000000001</v>
+      </c>
+      <c r="B36">
+        <v>929.38</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>1.3452642359333096</v>
+      </c>
+      <c r="E36">
+        <v>921.75199999999995</v>
+      </c>
+      <c r="F36">
+        <v>348.93</v>
+      </c>
+      <c r="G36">
+        <f>F36/MAX($F$5:$F$37)</f>
+        <v>0.33971026344996785</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>1.3452642359333096</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>0.33971026344996785</v>
+      </c>
+      <c r="L36">
+        <v>4.1059602649006619</v>
+      </c>
+      <c r="M36">
+        <v>0.91672021340810395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>479.81599999999997</v>
+      </c>
+      <c r="B37">
+        <v>856.06</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>1.3334250959205793</v>
+      </c>
+      <c r="E37">
+        <v>929.93600000000004</v>
+      </c>
+      <c r="F37">
+        <v>287.83</v>
+      </c>
+      <c r="G37">
+        <f>F37/MAX($F$5:$F$37)</f>
+        <v>0.28022470159861357</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>1.3334250959205793</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>0.28022470159861357</v>
+      </c>
+      <c r="L37">
+        <v>4.1333333333333337</v>
+      </c>
+      <c r="M37">
+        <v>0.91672021340810395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>494.69600000000003</v>
+      </c>
+      <c r="B38">
+        <v>764.41</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>1.24</v>
+      </c>
+      <c r="E38">
+        <v>1000</v>
+      </c>
+      <c r="F38">
+        <v>287.83</v>
+      </c>
+      <c r="G38">
+        <f>F38/MAX($F$5:$F$37)</f>
+        <v>0.28022470159861357</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>1.24</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>0.28022470159861357</v>
+      </c>
+      <c r="L38">
+        <v>6.2</v>
+      </c>
+      <c r="M38">
+        <v>0.91672021340810395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>511.06400000000002</v>
+      </c>
+      <c r="B39">
+        <v>733.86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>530.40800000000002</v>
+      </c>
+      <c r="B40">
+        <v>746.08</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>547.52</v>
+      </c>
+      <c r="B41">
+        <v>733.86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>557.93600000000004</v>
+      </c>
+      <c r="B42">
+        <v>947.71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>562.4</v>
+      </c>
+      <c r="B43">
+        <v>727.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>575.048</v>
+      </c>
+      <c r="B44">
+        <v>636.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>592.16</v>
+      </c>
+      <c r="B45">
+        <v>581.11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>610.01599999999996</v>
+      </c>
+      <c r="B46">
+        <v>532.23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>622.66399999999999</v>
+      </c>
+      <c r="B47">
+        <v>520.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>638.28800000000001</v>
+      </c>
+      <c r="B48">
+        <v>654.42999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>656.14400000000001</v>
+      </c>
+      <c r="B49">
+        <v>691.09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>674.74400000000003</v>
+      </c>
+      <c r="B50">
+        <v>617.77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>693.34400000000005</v>
+      </c>
+      <c r="B51">
+        <v>526.12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>711.2</v>
+      </c>
+      <c r="B52">
+        <v>458.91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>732.03200000000004</v>
+      </c>
+      <c r="B53">
+        <v>440.58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>764.024</v>
+      </c>
+      <c r="B54">
+        <v>422.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>793.78399999999999</v>
+      </c>
+      <c r="B55">
+        <v>403.92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>821.31200000000001</v>
+      </c>
+      <c r="B56">
+        <v>361.15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>854.79200000000003</v>
+      </c>
+      <c r="B57">
+        <v>361.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>895.71199999999999</v>
+      </c>
+      <c r="B58">
+        <v>361.15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>921.75199999999995</v>
+      </c>
+      <c r="B59">
+        <v>348.93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>929.93600000000004</v>
+      </c>
+      <c r="B60">
+        <v>287.83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>938.12</v>
+      </c>
+      <c r="B61">
+        <v>391.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>950.024</v>
+      </c>
+      <c r="B62">
+        <v>556.66999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>956.72</v>
+      </c>
+      <c r="B63">
+        <v>709.42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>967.13599999999997</v>
+      </c>
+      <c r="B64">
+        <v>807.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="L3:M38">
+    <sortCondition ref="L3:L38"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG44"/>
   <sheetViews>
-    <sheetView topLeftCell="L9" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8300,7 +10951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -8349,7 +11000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>190</v>
       </c>
@@ -8387,7 +11038,7 @@
         <v>3.1415926000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>180</v>
       </c>
@@ -8419,7 +11070,7 @@
         <v>2.9411764705882353E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>170</v>
       </c>
@@ -8451,7 +11102,7 @@
         <v>4.9019607843137254E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>160</v>
       </c>
@@ -8483,7 +11134,7 @@
         <v>6.8627450980392163E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>150</v>
       </c>
@@ -8515,7 +11166,7 @@
         <v>9.8039215686274508E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>140</v>
       </c>
@@ -8547,7 +11198,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>130</v>
       </c>
@@ -8579,7 +11230,7 @@
         <v>0.14052287581699346</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>120</v>
       </c>
@@ -8611,7 +11262,7 @@
         <v>0.16993464052287582</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>110</v>
       </c>
@@ -8643,7 +11294,7 @@
         <v>0.21568627450980393</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -8675,7 +11326,7 @@
         <v>0.2581699346405229</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>90</v>
       </c>
@@ -8707,7 +11358,7 @@
         <v>0.33986928104575165</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>80</v>
       </c>
@@ -8739,7 +11390,7 @@
         <v>0.40522875816993464</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>70</v>
       </c>
@@ -8778,7 +11429,7 @@
         <v>0.47058823529411764</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>60</v>
       </c>
@@ -8816,7 +11467,7 @@
         <v>0.54575163398692805</v>
       </c>
     </row>
-    <row r="17" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J17">
         <v>602</v>
       </c>
@@ -8842,7 +11493,7 @@
         <v>0.62745098039215685</v>
       </c>
     </row>
-    <row r="18" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J18">
         <v>606</v>
       </c>
@@ -8868,7 +11519,7 @@
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="19" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J19">
         <v>609</v>
       </c>
@@ -8894,7 +11545,7 @@
         <v>0.79084967320261434</v>
       </c>
     </row>
-    <row r="20" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J20">
         <v>613</v>
       </c>
@@ -8920,7 +11571,7 @@
         <v>0.85620915032679734</v>
       </c>
     </row>
-    <row r="21" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J21">
         <v>616</v>
       </c>
@@ -8946,7 +11597,7 @@
         <v>0.91503267973856206</v>
       </c>
     </row>
-    <row r="22" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J22">
         <v>621</v>
       </c>
@@ -8972,7 +11623,7 @@
         <v>0.95751633986928109</v>
       </c>
     </row>
-    <row r="23" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J23">
         <v>626</v>
       </c>
@@ -8998,7 +11649,7 @@
         <v>0.99346405228758172</v>
       </c>
     </row>
-    <row r="24" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J24">
         <v>631</v>
       </c>
@@ -9024,7 +11675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J25">
         <v>634</v>
       </c>
@@ -9050,7 +11701,7 @@
         <v>0.99673202614379086</v>
       </c>
     </row>
-    <row r="26" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J26">
         <v>637</v>
       </c>
@@ -9076,7 +11727,7 @@
         <v>0.96078431372549022</v>
       </c>
     </row>
-    <row r="27" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J27">
         <v>639</v>
       </c>
@@ -9102,7 +11753,7 @@
         <v>0.90849673202614378</v>
       </c>
     </row>
-    <row r="28" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J28">
         <v>641</v>
       </c>
@@ -9128,7 +11779,7 @@
         <v>0.85947712418300659</v>
       </c>
     </row>
-    <row r="29" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J29">
         <v>645</v>
       </c>
@@ -9154,7 +11805,7 @@
         <v>0.79738562091503273</v>
       </c>
     </row>
-    <row r="30" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J30">
         <v>647</v>
       </c>
@@ -9180,7 +11831,7 @@
         <v>0.72875816993464049</v>
       </c>
     </row>
-    <row r="31" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J31">
         <v>649</v>
       </c>
@@ -9206,7 +11857,7 @@
         <v>0.67647058823529416</v>
       </c>
     </row>
-    <row r="32" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J32">
         <v>652</v>
       </c>
@@ -9232,7 +11883,7 @@
         <v>0.63071895424836599</v>
       </c>
     </row>
-    <row r="33" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J33">
         <v>655</v>
       </c>
@@ -9258,7 +11909,7 @@
         <v>0.56209150326797386</v>
       </c>
     </row>
-    <row r="34" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J34">
         <v>660</v>
       </c>
@@ -9284,7 +11935,7 @@
         <v>0.48692810457516339</v>
       </c>
     </row>
-    <row r="35" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J35">
         <v>663</v>
       </c>
@@ -9310,7 +11961,7 @@
         <v>0.41503267973856212</v>
       </c>
     </row>
-    <row r="36" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J36">
         <v>666</v>
       </c>
@@ -9336,7 +11987,7 @@
         <v>0.33660130718954251</v>
       </c>
     </row>
-    <row r="37" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J37">
         <v>671</v>
       </c>
@@ -9362,7 +12013,7 @@
         <v>0.27450980392156865</v>
       </c>
     </row>
-    <row r="38" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J38">
         <v>674</v>
       </c>
@@ -9388,7 +12039,7 @@
         <v>0.18627450980392157</v>
       </c>
     </row>
-    <row r="39" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J39">
         <v>678</v>
       </c>
@@ -9414,7 +12065,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="40" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J40">
         <v>684</v>
       </c>
@@ -9440,7 +12091,7 @@
         <v>7.1895424836601302E-2</v>
       </c>
     </row>
-    <row r="41" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J41">
         <v>691</v>
       </c>
@@ -9466,7 +12117,7 @@
         <v>3.5947712418300651E-2</v>
       </c>
     </row>
-    <row r="42" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="10:19" x14ac:dyDescent="0.25">
       <c r="J42">
         <v>710</v>
       </c>
@@ -9492,7 +12143,7 @@
         <v>9.8039215686274508E-3</v>
       </c>
     </row>
-    <row r="43" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="10:19" x14ac:dyDescent="0.25">
       <c r="R43">
         <v>10.613630913355854</v>
       </c>
@@ -9500,7 +12151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="10:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="10:19" x14ac:dyDescent="0.25">
       <c r="R44">
         <v>10.62</v>
       </c>
